--- a/DFS.xlsx
+++ b/DFS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marco/Desktop/4336 - Special Situation Investing/case 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2113A5B8-E781-1242-9120-0A608982FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26826EC-59B7-BE4D-B03B-8EDA1F6F4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{3622F549-1052-1749-A932-E6EDE03E3C9A}"/>
+    <workbookView xWindow="5240" yWindow="500" windowWidth="23560" windowHeight="16300" activeTab="2" xr2:uid="{3622F549-1052-1749-A932-E6EDE03E3C9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="124">
   <si>
     <t>Share price</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>D/E</t>
-  </si>
-  <si>
-    <t>PARK HOTELS &amp; RESORTS INC.</t>
   </si>
   <si>
     <t>BV</t>
@@ -918,10 +915,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>205.76</v>
-    <v>119.31</v>
-    <v>1.1744000000000001</v>
-    <v>2.0299999999999998</v>
-    <v>1.2926999999999999E-2</v>
+    <v>119.67</v>
+    <v>1.1619999999999999</v>
+    <v>3.32</v>
+    <v>2.1240000000000002E-2</v>
+    <v>1.26</v>
+    <v>7.8930000000000007E-3</v>
     <v>USD</v>
     <v>Discover Financial Services is a digital banking and payment services company. The Company is a bank holding company, as well as a financial holding company. The Company operates through two segments: Digital Banking and Payment Services. The Digital Banking segment includes consumer banking and lending products, specifically Discover-branded credit cards issued to individuals on the Discover Network and other consumer banking products and services, including personal loans, home loans and deposit products. The Payment Services segment includes PULSE, Diners Club and its Network Partners business, which provides payment transaction processing and settlement, merchant acquisition, ATM access and related payments services on the Discover Global Network. Its Diners Club business maintains a global acceptance network through its relationships with licensees. Its processing services cover four functional areas: card personalization, print/mail, remittance processing and item processing.</v>
     <v>21000</v>
@@ -929,24 +928,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2500 Lake Cook Rd, RIVERWOODS, IL, 60015 US</v>
-    <v>163.91</v>
+    <v>161.52369999999999</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45761.960142175783</v>
+    <v>45764.958333356248</v>
     <v>0</v>
-    <v>156</v>
-    <v>40022855071</v>
+    <v>155.54</v>
+    <v>40163754039</v>
     <v>DISCOVER FINANCIAL SERVICES</v>
     <v>DISCOVER FINANCIAL SERVICES</v>
-    <v>162.88</v>
-    <v>8.9748000000000001</v>
-    <v>157.04</v>
-    <v>159.07</v>
+    <v>157.54</v>
+    <v>9.0063999999999993</v>
+    <v>156.31</v>
+    <v>159.63</v>
+    <v>160.88999999999999</v>
     <v>251605300</v>
     <v>DFS</v>
     <v>DISCOVER FINANCIAL SERVICES (XNYS:DFS)</v>
-    <v>720</v>
-    <v>2737621</v>
+    <v>1106334</v>
+    <v>2509324</v>
     <v>1960</v>
   </rv>
   <rv s="2">
@@ -970,9 +970,11 @@
     <v>Powered by Refinitiv</v>
     <v>210.67</v>
     <v>128.22499999999999</v>
-    <v>1.1621999999999999</v>
-    <v>1.55</v>
-    <v>9.6290000000000004E-3</v>
+    <v>1.1543000000000001</v>
+    <v>2.71</v>
+    <v>1.6931000000000002E-2</v>
+    <v>0.62</v>
+    <v>3.8090000000000003E-3</v>
     <v>USD</v>
     <v>Capital One Financial Corporation is a diversified financial service holding company. The Company offers a range of financial products and services to consumers, small businesses and commercial clients through digital channels, branch locations, cafes, and other distribution channels. It operates through three segments: Credit Card, Consumer Banking and Commercial Banking. The Credit Card segment consists of its domestic consumer and small business card lending, and international card businesses in the United Kingdom and Canada. The Consumer Banking segment consists of its deposit gathering and lending activities for consumers and small businesses, and national auto lending. The Commercial Banking segment consists of its lending, deposit gathering, capital markets and treasury management services to commercial real estate and commercial and industrial customers.</v>
     <v>52600</v>
@@ -980,24 +982,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1680 Capital One Drive, Suite 1400, MCLEAN, VA, 22102 US</v>
-    <v>166.16</v>
+    <v>164.78</v>
     <v>Banking Services</v>
     <v>Stock</v>
-    <v>45761.998326272653</v>
+    <v>45764.995527846877</v>
     <v>3</v>
-    <v>159.76</v>
-    <v>62238512932</v>
+    <v>158.41999999999999</v>
+    <v>62334260000</v>
     <v>CAPITAL ONE FINANCIAL CORPORATION</v>
     <v>CAPITAL ONE FINANCIAL CORPORATION</v>
-    <v>166.16</v>
-    <v>14.0329</v>
-    <v>160.97</v>
-    <v>162.52000000000001</v>
+    <v>161.32</v>
+    <v>14.054399999999999</v>
+    <v>160.06</v>
+    <v>162.77000000000001</v>
+    <v>163.38999999999999</v>
     <v>382959100</v>
     <v>COF</v>
     <v>CAPITAL ONE FINANCIAL CORPORATION (XNYS:COF)</v>
-    <v>208</v>
-    <v>5819821</v>
+    <v>2340528</v>
+    <v>5519238</v>
     <v>1994</v>
   </rv>
   <rv s="2">
@@ -1029,6 +1032,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1049,6 +1054,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1065,7 +1071,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1076,13 +1082,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1148,13 +1157,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1199,6 +1214,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1206,6 +1224,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -1586,9 +1607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AECF8D9-A49C-AC47-B536-19D273717279}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1611,7 +1630,7 @@
       </c>
       <c r="C1" s="1" cm="1">
         <f t="array" aca="1" ref="C1" ca="1">_FV(A1,"Price")</f>
-        <v>159.07</v>
+        <v>159.63</v>
       </c>
       <c r="D1" s="1"/>
       <c r="I1" t="e" vm="2">
@@ -1619,7 +1638,7 @@
       </c>
       <c r="J1" s="1" cm="1">
         <f t="array" aca="1" ref="J1" ca="1">_FV(I1,"Price")</f>
-        <v>162.52000000000001</v>
+        <v>162.77000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1629,20 +1648,20 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1665,21 +1684,21 @@
     </row>
     <row r="4" spans="1:12">
       <c r="E4" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="75">
         <v>123</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J4" s="65">
         <f ca="1">C1</f>
-        <v>159.07</v>
+        <v>159.63</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1691,22 +1710,22 @@
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="76">
         <v>131</v>
       </c>
       <c r="G5" s="68"/>
       <c r="I5" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="66">
         <f ca="1">J1</f>
-        <v>162.52000000000001</v>
+        <v>162.77000000000001</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1721,14 +1740,14 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="8">
         <v>1.0192000000000001</v>
       </c>
       <c r="G6" s="46"/>
       <c r="I6" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="8">
         <v>1.0192000000000001</v>
@@ -1748,14 +1767,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="7">
         <f>Multiples!B18</f>
         <v>17926</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="51">
         <f>F5*F6</f>
@@ -1764,15 +1783,15 @@
       <c r="G8" s="58"/>
       <c r="H8" s="74"/>
       <c r="I8" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="51">
         <f ca="1">J5*J6</f>
-        <v>165.64038400000004</v>
+        <v>165.89518400000003</v>
       </c>
       <c r="K8" s="46"/>
       <c r="L8" s="74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1784,7 +1803,7 @@
         <v>147640</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="70">
         <f>F8-F4</f>
@@ -1796,19 +1815,19 @@
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="70">
         <f ca="1">J8-J4</f>
-        <v>6.5703840000000469</v>
+        <v>6.2651840000000334</v>
       </c>
       <c r="K9" s="56">
         <f ca="1">J9/J4</f>
-        <v>4.1304985226630085E-2</v>
+        <v>3.9248161373175681E-2</v>
       </c>
       <c r="L9" s="56">
         <f ca="1">K9*365/K3</f>
-        <v>0.19579635854181793</v>
+        <v>0.18604647923648213</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1820,14 +1839,14 @@
         <v>161166.57</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="46">
         <v>0</v>
       </c>
       <c r="G10" s="4"/>
       <c r="I10" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="46">
         <v>0</v>
@@ -1836,17 +1855,17 @@
     </row>
     <row r="11" spans="1:12">
       <c r="E11" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="59">
         <f>0.7*4</f>
         <v>2.8</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="59">
         <v>0.7</v>
@@ -1854,7 +1873,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="E12" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="53">
         <f>F9-F10+F11</f>
@@ -1866,27 +1885,27 @@
       </c>
       <c r="H12" s="62"/>
       <c r="I12" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J12" s="66">
         <f ca="1">J9-J10+J11</f>
-        <v>7.270384000000047</v>
+        <v>6.9651840000000336</v>
       </c>
       <c r="K12" s="60">
         <f ca="1">J12/J4</f>
-        <v>4.5705563588357624E-2</v>
+        <v>4.3633302010900418E-2</v>
       </c>
       <c r="L12" s="60">
         <f ca="1">K12*365/K3</f>
-        <v>0.21665624298377317</v>
+        <v>0.20683318485686561</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="D13" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="67">
         <f>F8*G13*((L3-F3)/365)</f>
@@ -1896,43 +1915,43 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="68">
         <f ca="1">J8*G13*(K3/365)</f>
-        <v>8.7358284712328788E-2</v>
+        <v>8.7492665534246589E-2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="67">
         <f>0.6*3*F6</f>
         <v>1.83456</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="68">
         <f>0.6*J6</f>
         <v>0.61152000000000006</v>
       </c>
       <c r="K14" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="E15" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="59">
         <f>F8*G15*((L3-F3)/365)</f>
@@ -1942,19 +1961,19 @@
         <v>0.03</v>
       </c>
       <c r="H15" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I15" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="69">
         <f ca="1">J8*G15*(K3/365)</f>
-        <v>1.0482994165479453</v>
+        <v>1.049911986410959</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="53">
         <f>F9-F10+F11-F13-F14+F15</f>
@@ -1966,19 +1985,19 @@
       </c>
       <c r="H16" s="62"/>
       <c r="I16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="53">
         <f ca="1">J9-J10+J11-J13-J14+J15</f>
-        <v>7.6198051318356645</v>
+        <v>7.3160833208767455</v>
       </c>
       <c r="K16" s="62">
         <f ca="1">J16/J4</f>
-        <v>4.7902213691052145E-2</v>
+        <v>4.5831506113366824E-2</v>
       </c>
       <c r="L16" s="62">
         <f ca="1">K16*365/K3</f>
-        <v>0.22706893502901343</v>
+        <v>0.21725324326466089</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1994,13 +2013,13 @@
         <v>25</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L18" s="62"/>
     </row>
@@ -2009,7 +2028,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" s="63">
         <v>45338</v>
@@ -2027,7 +2046,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I20" s="81">
         <f>J3</f>
@@ -2035,11 +2054,11 @@
       </c>
       <c r="J20" s="82">
         <f ca="1">J4</f>
-        <v>159.07</v>
+        <v>159.63</v>
       </c>
       <c r="K20" s="79">
         <f ca="1">J5</f>
-        <v>162.52000000000001</v>
+        <v>162.77000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2047,14 +2066,14 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="83">
         <f ca="1">J19-J20</f>
-        <v>-48.86999999999999</v>
+        <v>-49.429999999999993</v>
       </c>
       <c r="K21" s="78"/>
     </row>
@@ -2063,10 +2082,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I22" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="44">
         <v>0.7</v>
@@ -2078,19 +2097,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J23" s="86">
         <f ca="1">J22+J21</f>
-        <v>-48.169999999999987</v>
+        <v>-48.72999999999999</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="62">
         <f ca="1">J23/J20</f>
-        <v>-0.3028226566920223</v>
+        <v>-0.30526843325189496</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2098,26 +2117,26 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="67">
         <f ca="1">(K20-K19)*J6</f>
-        <v>27.029184000000015</v>
+        <v>27.283984000000014</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="I25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K25" s="84">
         <f ca="1">J8*G13*(K3/365)</f>
-        <v>8.7358284712328788E-2</v>
+        <v>8.7492665534246589E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2125,7 +2144,7 @@
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="84">
         <v>0.6</v>
@@ -2136,18 +2155,18 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I27" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="85">
         <f ca="1">J8*G15*(K3/365)</f>
-        <v>1.0482994165479453</v>
+        <v>1.049911986410959</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2155,22 +2174,22 @@
         <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" s="86">
         <f ca="1">J23</f>
-        <v>-48.169999999999987</v>
+        <v>-48.72999999999999</v>
       </c>
       <c r="K28" s="86">
         <f ca="1">K24-K25-K26+K27</f>
-        <v>27.390125131835628</v>
+        <v>27.646403320876725</v>
       </c>
       <c r="L28" s="62">
         <f ca="1">(J28+K28)/J20</f>
-        <v>-0.13063352529178576</v>
+        <v>-0.13207790941003111</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2183,7 +2202,7 @@
         <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E31" s="50"/>
     </row>
@@ -2192,7 +2211,7 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2200,7 +2219,7 @@
         <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2208,7 +2227,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2216,10 +2235,10 @@
         <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2229,50 +2248,50 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
-        <v>121</v>
+      <c r="B42" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>120</v>
-      </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2291,7 +2310,7 @@
   <dimension ref="A1:U932"/>
   <sheetViews>
     <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -2304,8 +2323,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
+      <c r="A1" s="10" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" customHeight="1">
@@ -2811,7 +2830,7 @@
     </row>
     <row r="21" spans="1:21" ht="16" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="17">
         <v>6074</v>
@@ -2840,7 +2859,7 @@
     </row>
     <row r="22" spans="1:21" ht="16" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="12">
         <v>17.72</v>
@@ -2890,7 +2909,7 @@
     </row>
     <row r="24" spans="1:21" ht="16" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="87">
         <f>B6/B21</f>
@@ -2983,7 +3002,7 @@
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B27" s="43">
         <f>B4/B22</f>
@@ -21179,11 +21198,11 @@
   </sheetPr>
   <dimension ref="A1:V907"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -21195,8 +21214,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
+      <c r="A1" s="10" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="30"/>
@@ -21317,7 +21336,7 @@
     </row>
     <row r="5" spans="1:22" ht="16" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="17">
         <v>6074</v>
@@ -21355,7 +21374,7 @@
     </row>
     <row r="6" spans="1:22" ht="16" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -21575,7 +21594,7 @@
     </row>
     <row r="13" spans="1:22" ht="16" customHeight="1">
       <c r="A13" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="17">
         <v>105459</v>
@@ -21998,7 +22017,7 @@
     </row>
     <row r="26" spans="1:22" ht="16" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="17">
         <f>(B25*B21)/B28</f>
@@ -22116,7 +22135,7 @@
     </row>
     <row r="30" spans="1:22" ht="16" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="33">
         <f t="shared" ref="B30:G30" si="5">B5/B21</f>
@@ -22272,7 +22291,7 @@
     </row>
     <row r="34" spans="1:22" ht="16" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="38">
         <f>B5/C24</f>
@@ -22316,7 +22335,7 @@
     </row>
     <row r="35" spans="1:22" ht="16" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="38">
         <f t="shared" ref="B35:G35" si="8">B5/B24</f>
@@ -22387,7 +22406,7 @@
     </row>
     <row r="37" spans="1:22" ht="16" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="38">
         <f>B5/C12</f>
@@ -22431,7 +22450,7 @@
     </row>
     <row r="38" spans="1:22" ht="16" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="38">
         <f>B5/B12</f>
@@ -22502,7 +22521,7 @@
     </row>
     <row r="40" spans="1:22" ht="16" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" s="40">
         <f>(B30-C30)/C30</f>
